--- a/xlsx/残疾人权利公约_intext.xlsx
+++ b/xlsx/残疾人权利公约_intext.xlsx
@@ -29,7 +29,7 @@
     <t>联合国</t>
   </si>
   <si>
-    <t>政策_政策_美國_残疾人权利公约</t>
+    <t>政策_政策_美国_残疾人权利公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
